--- a/biology/Zoologie/Éthologie_cognitive/Éthologie_cognitive.xlsx
+++ b/biology/Zoologie/Éthologie_cognitive/Éthologie_cognitive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89thologie_cognitive</t>
+          <t>Éthologie_cognitive</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'éthologie cognitive est une discipline intégrative qui associe principalement l'éthologie et la psychologie et qui étudie les facultés cognitives des animaux.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89thologie_cognitive</t>
+          <t>Éthologie_cognitive</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Origine de la discipline</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La synthèse des sciences cognitives et de l'éthologie a donné naissance à l'éthologie cognitive, qui a pour « objet principal l'observation des animaux dans un milieu plus ou moins naturel et pour but de comprendre l'évolution, l'adaptation, l'origine et le développement d'un répertoire comportemental spécifique à chaque espèce »[1].
-L'expression « éthologie cognitive » a été initialement proposée par Donald Griffin dans son livre The Question of Animal Awareness[2],[3], publié en 1976.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La synthèse des sciences cognitives et de l'éthologie a donné naissance à l'éthologie cognitive, qui a pour « objet principal l'observation des animaux dans un milieu plus ou moins naturel et pour but de comprendre l'évolution, l'adaptation, l'origine et le développement d'un répertoire comportemental spécifique à chaque espèce ».
+L'expression « éthologie cognitive » a été initialement proposée par Donald Griffin dans son livre The Question of Animal Awareness publié en 1976.
 Le terme tend à remplacer celui d'« intelligence animale » considéré comme obsolète dans les publications en langue anglaise. L'équivalent humain est la « psychologie cognitive ». 
 </t>
         </is>
